--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem4/67/word_level_predictions_67.xlsx
@@ -1201,83 +1201,83 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -7233,81 +7233,81 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>9</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>3</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E132" s="2" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11422,156 +11422,156 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="F212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>16</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>4</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" t="n">
         <v>16</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" t="n">
         <v>5</v>
       </c>
-      <c r="E249" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" t="n">
         <v>16</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" t="n">
         <v>6</v>
       </c>
-      <c r="E250" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L250" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K250" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="A251" t="n">
         <v>16</v>
       </c>
-      <c r="B251" s="2" t="inlineStr">
+      <c r="B251" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" s="2" t="inlineStr">
+      <c r="C251" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" s="2" t="n">
+      <c r="D251" t="n">
         <v>7</v>
       </c>
-      <c r="E251" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L251" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G251" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K251" t="b">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="A252" t="n">
         <v>16</v>
       </c>
-      <c r="B252" s="2" t="inlineStr">
+      <c r="B252" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" s="2" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" s="2" t="n">
+      <c r="D252" t="n">
         <v>8</v>
       </c>
-      <c r="E252" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L252" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G252" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K252" t="b">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
+      <c r="A253" t="n">
         <v>16</v>
       </c>
-      <c r="B253" s="2" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" s="2" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" s="2" t="n">
+      <c r="D253" t="n">
         <v>9</v>
       </c>
-      <c r="E253" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K253" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L253" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G253" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K253" t="b">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" t="n">
         <v>16</v>
       </c>
-      <c r="B254" s="2" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" s="2" t="n">
+      <c r="D254" t="n">
         <v>10</v>
       </c>
-      <c r="E254" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G254" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K254" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" t="n">
         <v>16</v>
       </c>
-      <c r="B255" s="2" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" s="2" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" s="2" t="n">
+      <c r="D255" t="n">
         <v>11</v>
       </c>
-      <c r="E255" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L255" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K255" t="b">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" t="n">
         <v>16</v>
       </c>
-      <c r="B256" s="2" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" s="2" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" s="2" t="n">
+      <c r="D256" t="n">
         <v>12</v>
       </c>
-      <c r="E256" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L256" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G256" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K256" t="b">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" t="n">
         <v>16</v>
       </c>
-      <c r="B257" s="2" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" s="2" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" s="2" t="n">
+      <c r="D257" t="n">
         <v>13</v>
       </c>
-      <c r="E257" s="2" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K257" t="b">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem4/67/word_level_predictions_67.xlsx
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1225,59 +1225,59 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -7257,57 +7257,57 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E132" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F132" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11422,156 +11422,156 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>13</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>5</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" s="2" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>13</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>6</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>13</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>7</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E248" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F248" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
+      <c r="A249" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C249" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" t="n">
+      <c r="D249" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E249" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
+      <c r="A250" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C250" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K250" t="b">
-        <v>1</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E250" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
+      <c r="A251" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C251" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" t="n">
+      <c r="D251" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G251" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K251" t="b">
-        <v>1</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E251" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K251" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L251" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
+      <c r="A252" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C252" s="2" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" t="n">
+      <c r="D252" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G252" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K252" t="b">
-        <v>1</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E252" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K252" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L252" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
+      <c r="A253" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C253" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D253" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G253" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K253" t="b">
-        <v>1</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E253" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K253" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L253" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" t="n">
+      <c r="D254" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K254" t="b">
-        <v>1</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E254" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C255" s="2" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" t="n">
+      <c r="D255" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K255" t="b">
-        <v>1</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E255" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C256" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K256" t="b">
-        <v>1</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C257" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" t="n">
+      <c r="D257" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="E257" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K257" t="b">
-        <v>1</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
